--- a/Excel2Unity/Excel/InnstoryData/MercenaryCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/MercenaryCards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13065"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,47 +16,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>卡牌ID</t>
   </si>
   <si>
-    <t>姓名</t>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>效果说明</t>
+  </si>
+  <si>
+    <t>激活效果</t>
   </si>
   <si>
     <t>说明</t>
   </si>
   <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>洞察</t>
-  </si>
-  <si>
-    <t>体质</t>
-  </si>
-  <si>
-    <t>意志</t>
-  </si>
-  <si>
-    <t>生命</t>
-  </si>
-  <si>
-    <t>理性</t>
-  </si>
-  <si>
-    <t>幸运</t>
-  </si>
-  <si>
     <t>CS</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -69,28 +48,13 @@
     <t>name</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>insight</t>
-  </si>
-  <si>
-    <t>physique</t>
-  </si>
-  <si>
-    <t>determination</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>lucky</t>
+    <t>effectdesc</t>
+  </si>
+  <si>
+    <t>activeEffect</t>
+  </si>
+  <si>
+    <t>descriptipon</t>
   </si>
   <si>
     <t>KEY</t>
@@ -99,19 +63,89 @@
     <t>龙虾人</t>
   </si>
   <si>
+    <t>每次投掷后，+1剑.</t>
+  </si>
+  <si>
+    <t>海妖之螺召唤</t>
+  </si>
+  <si>
     <t>三声夜鹰</t>
   </si>
   <si>
+    <t>体质-1，意志-1</t>
+  </si>
+  <si>
+    <t>战斗结算达成以下条件后自动弃除：3月，2旧印。</t>
+  </si>
+  <si>
+    <t>任务卡：渴望死亡</t>
+  </si>
+  <si>
     <t>黑帮打手</t>
   </si>
   <si>
+    <t>我方攻击时，+2剑.</t>
+  </si>
+  <si>
+    <t>任务卡：“向导”</t>
+  </si>
+  <si>
     <t>神秘学者</t>
   </si>
   <si>
+    <t>洞察+1，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任意一方施法时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我方+1剑，对手-1剑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>任务卡：禁忌研究</t>
+  </si>
+  <si>
     <t>深海持盾者</t>
   </si>
   <si>
+    <t>战斗结算时，受到的伤害-2。</t>
+  </si>
+  <si>
+    <t>任务卡：伊哈斯里的支援</t>
+  </si>
+  <si>
     <t>秘教唱诗人</t>
+  </si>
+  <si>
+    <t>我方施法时，攻击值+2.</t>
+  </si>
+  <si>
+    <t>任务卡：邪恶祭奠</t>
   </si>
 </sst>
 </file>
@@ -120,11 +154,35 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +312,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -262,22 +327,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +350,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,6 +482,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,30 +524,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -477,7 +541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -506,17 +570,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -526,15 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -555,12 +599,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -572,7 +618,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -697,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,137 +757,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,35 +904,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1271,28 +1322,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="3" width="27" customWidth="1"/>
-    <col min="4" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="9" width="38.5" customWidth="1"/>
-    <col min="10" max="11" width="41.375" customWidth="1"/>
-    <col min="12" max="12" width="50.125" customWidth="1"/>
-    <col min="13" max="13" width="42.125" customWidth="1"/>
-    <col min="14" max="15" width="52.25" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="30.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="39.85" customWidth="1"/>
+    <col min="5" max="5" width="43.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1305,296 +1352,183 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:15">
-      <c r="A4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:15">
+    <row r="6" s="2" customFormat="1" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13">
-        <v>6</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2</v>
-      </c>
-      <c r="F6" s="13">
-        <v>6</v>
-      </c>
-      <c r="G6" s="13">
-        <v>4</v>
-      </c>
-      <c r="H6" s="13">
-        <v>24</v>
-      </c>
-      <c r="I6" s="13">
-        <v>18</v>
-      </c>
-      <c r="J6" s="13">
-        <v>4</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:15">
+    <row r="7" s="2" customFormat="1" ht="27" spans="1:5">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14">
-        <v>3</v>
-      </c>
-      <c r="E7" s="14">
-        <v>6</v>
-      </c>
-      <c r="F7" s="14">
-        <v>4</v>
-      </c>
-      <c r="G7" s="13">
-        <v>6</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="13">
-        <v>22</v>
-      </c>
-      <c r="J7" s="13">
-        <v>3</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>28</v>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" ht="27" spans="1:5">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>7</v>
+      <c r="D11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="$A4:$XFD4">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
-    <cfRule type="cellIs" priority="2" operator="equal">
+  <conditionalFormatting sqref="$A2:$XFD3">
+    <cfRule type="cellIs" priority="8" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:XFD3 A2:N3">
-    <cfRule type="cellIs" priority="6" operator="equal">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:XFD4 A4:N4">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  <conditionalFormatting sqref="A4:C4 E4:XFD4">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:D2 E2:XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3 I3 J3 K3:XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:D3 E3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:D5 E5:XFD5">
       <formula1>"KEY"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel2Unity/Excel/InnstoryData/MercenaryCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/MercenaryCards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28710" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>卡牌ID</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>descriptipon</t>
-  </si>
-  <si>
-    <t>KEY</t>
   </si>
   <si>
     <t>龙虾人</t>
@@ -154,11 +151,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,14 +182,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,10 +295,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,7 +311,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,111 +319,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +352,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,169 +514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,15 +622,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,6 +684,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -728,27 +723,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,133 +741,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -928,13 +912,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1327,7 +1311,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1408,9 +1392,7 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1421,14 +1403,14 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="27" spans="1:5">
@@ -1436,16 +1418,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1453,30 +1435,30 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="9" ht="27" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1484,13 +1466,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1498,13 +1480,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1522,14 +1504,14 @@
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:D5 E5:XFD5">
+      <formula1>"KEY"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:D2 E2:XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:D3 E3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:D5 E5:XFD5">
-      <formula1>"KEY"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel2Unity/Excel/InnstoryData/MercenaryCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/MercenaryCards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="12165"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>卡牌ID</t>
   </si>
@@ -33,6 +33,9 @@
     <t>说明</t>
   </si>
   <si>
+    <t>预制体</t>
+  </si>
+  <si>
     <t>CS</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
     <t>descriptipon</t>
   </si>
   <si>
+    <t>prefabPath</t>
+  </si>
+  <si>
     <t>龙虾人</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
   </si>
   <si>
     <t>海妖之螺召唤</t>
+  </si>
+  <si>
+    <t>prefab/1</t>
   </si>
   <si>
     <t>三声夜鹰</t>
@@ -152,8 +161,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -179,6 +188,103 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -196,104 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,8 +318,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,7 +328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,19 +355,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,31 +481,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,126 +523,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -554,6 +563,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -563,6 +583,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -583,6 +612,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -622,6 +662,63 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,54 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -696,15 +745,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,19 +781,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,116 +802,116 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,37 +928,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1306,24 +1355,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="30.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="39.85" customWidth="1"/>
     <col min="5" max="5" width="43.0833333333333" customWidth="1"/>
+    <col min="6" max="6" width="32.2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1339,179 +1389,224 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
+    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:5">
+    <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="27" spans="1:5">
+    <row r="7" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="15" t="s">
         <v>26</v>
       </c>
+      <c r="C9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="$A2:$XFD3">
-    <cfRule type="cellIs" priority="8" operator="equal">
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" priority="1" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 E4:XFD4">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" priority="3" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:E3 G2:XFD3">
+    <cfRule type="cellIs" priority="12" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4 E4 G4:XFD4">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:D5 E5:XFD5">
-      <formula1>"KEY"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:D3 E3 F3 G3:XFD3">
+      <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:D2 E2:XFD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:D2 E2 F2 G2:XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:D3 E3:XFD3">
-      <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:D5 E5 F5 G5:XFD5">
+      <formula1>"KEY"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel2Unity/Excel/InnstoryData/MercenaryCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/MercenaryCards.xlsx
@@ -72,7 +72,7 @@
     <t>海妖之螺召唤</t>
   </si>
   <si>
-    <t>prefab/1</t>
+    <t>prefab/MercenaryCard</t>
   </si>
   <si>
     <t>三声夜鹰</t>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -205,6 +205,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -213,6 +228,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -227,37 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,24 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,33 +290,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,181 +355,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,6 +681,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -699,67 +758,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,130 +784,130 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,7 +1360,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F11"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1599,11 +1599,11 @@
     <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:D2 E2 F2 G2:XFD2">
+      <formula1>"C,S,CS"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:D3 E3 F3 G3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:D2 E2 F2 G2:XFD2">
-      <formula1>"C,S,CS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:D5 E5 F5 G5:XFD5">
       <formula1>"KEY"</formula1>

--- a/Excel2Unity/Excel/InnstoryData/MercenaryCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/MercenaryCards.xlsx
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -200,6 +200,127 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,127 +333,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -355,37 +355,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,133 +505,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,6 +662,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,10 +696,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -705,32 +755,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -739,175 +763,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,7 +1360,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6:F11"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1479,7 +1479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="27" spans="1:6">
+    <row r="7" s="2" customFormat="1" ht="12" customHeight="1" spans="1:6">
       <c r="A7">
         <v>2</v>
       </c>
